--- a/Base-宽表/社员表整理/社员相关表.xlsx
+++ b/Base-宽表/社员表整理/社员相关表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="b_member_profile" sheetId="1" r:id="rId1"/>
@@ -238,6 +238,1082 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>25元优惠券使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday_coupon_use_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日券使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencard_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_opencard_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次开卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为社员后GMV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_order_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为社员后订单量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员粮票返利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否领取开卡礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员消费信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员标示类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal(20,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>born_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>born_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_get_cardgift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_cityno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associator_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员开通方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_gmv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apportion_rebate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupons_25_use_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：1有效 0无效 -1过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户开通特殊等级的方式，1030由于北京移动增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gabase.b_customer_associator </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard截取</t>
+  </si>
+  <si>
+    <t>idcard截取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_customer中create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_custoemr中id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_custoemr中mobilephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_customer中associator_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_customer中associator_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gemini.t_customer中customer_source </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_customer中white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gabase.b_customer_associator中opencard_store_id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gabase.b_customer_associator中city_no </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gabasse.b_customer_associator中create_time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini.t_customer中associator_expiry_date</t>
+  </si>
+  <si>
+    <t>gemini.t_order_receipts中pay_time与gemini.t_customer中create_time为同一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">当gemini.t_order_receipts中type不为空取type,其次取gemini.t_card中type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gemini_mongo.t_customer_info_record_ext中invitecode </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量默认为1，更新操作时开卡时间不等于首次开卡时间时次数+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associator_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日更新gemini.t_customer中associator_level != 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中birthday_coupon_use_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中coupons_25_use_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中member_GMV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中member_order_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中apportion_rebate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabase.v_member_consumption中is_get_cardgift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dawqwb.df_user_member仅历史数据包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b_member_profile</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社员档案表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b_customer_associator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社员基础表</t>
+    </r>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencard_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡城市长编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡城市短编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开卡门店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gemini.t_customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gabase.t_sys_citycode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>city_code</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取值原则：最高当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_order_receipts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表不为空时，取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其次当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_exchange_card_batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表不为空时，取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gabase.b_customer_idcard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idcard</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取值原则：最高当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_order_receipts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表不为空时，取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>city_code;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其次当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_exchange_card_batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表不为空时，取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>city_code;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini_mongo.t_customer_info_record_ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>citycode</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gemini_mongo.t_customer_info_record_ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取值原则：最高当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_order_receipts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pay_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不为空时取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pay_time;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其次当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini_mongo.t_customer_info_record_ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>createdat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不为空时取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>createdat;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gemini.t_member_operation_record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>create_time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>create_time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT customer_id,sum(CASE WHEN order_tag1 LIKE '%M%' THEN trading_price ELSE 0 END) member_GMV, sum(CASE WHEN order_tag1 LIKE '%M%' THEN 1 ELSE 0 END) member_order_count,sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(apportion_rebate, 0) ELSE 0 END) apportion_rebate, sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(returned_amount, 0) ELSE 0 END) returned_amount, sum(CASE WHEN order_tag4 = 'A2' THEN 1 ELSE 0 END) birthday_coupon_use_count, sum(CASE WHEN order_tag4 = 'A1' THEN 1 ELSE 0 END) coupons_25_use_count, sum(CASE WHEN order_tag4 = 'A3' THEN 1 ELSE 0 END) is_get_cardgift FROM daqweb.df_mass_order_total WHERE create_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') GROUP BY customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>会员来源,用于记录会员进入表的方式,off_storekeeper:最初提供excel表手动导入店长社员,off_member:最初提供excel表手动导入普通社员,adminDefined2:正式记录表中人工手动导入系统自动为2的社员,</t>
     </r>
@@ -249,1082 +1325,6 @@
       </rPr>
       <t>App,invitecode</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25元优惠券使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday_coupon_use_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日券使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opencard_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开卡次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_opencard_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次开卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成为社员后GMV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_order_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成为社员后订单量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员粮票返利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否领取开卡礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员注册信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员消费信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员标示类信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> decimal(20,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>born_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>born_city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_get_cardgift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regist_cityno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>associator_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员开通方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_gmv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apportion_rebate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupons_25_use_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：1有效 0无效 -1过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户开通特殊等级的方式，1030由于北京移动增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gabase.b_customer_associator </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idcard截取</t>
-  </si>
-  <si>
-    <t>idcard截取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_customer中create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_custoemr中id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_custoemr中mobilephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_customer中associator_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_customer中associator_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gemini.t_customer中customer_source </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_customer中white</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gabase.b_customer_associator中opencard_store_id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gabase.b_customer_associator中city_no </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gabasse.b_customer_associator中create_time </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini.t_customer中associator_expiry_date</t>
-  </si>
-  <si>
-    <t>gemini.t_order_receipts中pay_time与gemini.t_customer中create_time为同一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">当gemini.t_order_receipts中type不为空取type,其次取gemini.t_card中type </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gemini_mongo.t_customer_info_record_ext中invitecode </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增量默认为1，更新操作时开卡时间不等于首次开卡时间时次数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>associator_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日更新gemini.t_customer中associator_level != 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中birthday_coupon_use_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中coupons_25_use_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中member_GMV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中member_order_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中apportion_rebate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gabase.v_member_consumption中is_get_cardgift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dawqwb.df_user_member仅历史数据包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b_member_profile</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>社员档案表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b_customer_associator</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>社员基础表</t>
-    </r>
-  </si>
-  <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opencard_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开卡城市长编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开卡城市短编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开卡门店</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开卡日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gemini.t_customer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gabase.t_sys_citycode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>city_code</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>取值原则：最高当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_order_receipts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表不为空时，取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其次当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_exchange_card_batch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表不为空时，取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gabase.b_customer_idcard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>idcard</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取值原则：最高当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_order_receipts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表不为空时，取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>city_code;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其次当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_exchange_card_batch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表不为空时，取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t_store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>city_code;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最后取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini_mongo.t_customer_info_record_ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>citycode</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gemini_mongo.t_customer_info_record_ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>birthday</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>取值原则：最高当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_order_receipts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pay_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不为空时取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pay_time;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其次当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini_mongo.t_customer_info_record_ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>createdat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不为空时取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>createdat;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最后取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gemini.t_member_operation_record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>create_time</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>create_time</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视图</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sql</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT customer_id,sum(CASE WHEN order_tag1 LIKE '%M%' THEN trading_price ELSE 0 END) member_GMV, sum(CASE WHEN order_tag1 LIKE '%M%' THEN 1 ELSE 0 END) member_order_count,sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(apportion_rebate, 0) ELSE 0 END) apportion_rebate, sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(returned_amount, 0) ELSE 0 END) returned_amount, sum(CASE WHEN order_tag4 = 'A2' THEN 1 ELSE 0 END) birthday_coupon_use_count, sum(CASE WHEN order_tag4 = 'A1' THEN 1 ELSE 0 END) coupons_25_use_count, sum(CASE WHEN order_tag4 = 'A3' THEN 1 ELSE 0 END) is_get_cardgift FROM daqweb.df_mass_order_total WHERE create_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') GROUP BY customer_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,6 +1588,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,12 +1610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1937,15 +1937,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
@@ -1966,14 +1966,14 @@
         <v>48</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1992,11 +1992,11 @@
         <v>59</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2011,28 +2011,28 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2047,13 +2047,13 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
@@ -2066,13 +2066,13 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>41</v>
@@ -2085,13 +2085,13 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -2104,11 +2104,11 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>76</v>
+      <c r="A11" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
@@ -2144,13 +2144,13 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>41</v>
@@ -2163,26 +2163,26 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2197,11 +2197,11 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -2214,30 +2214,30 @@
       <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="31" t="s">
-        <v>78</v>
+      <c r="A16" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2250,11 +2250,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2267,11 +2267,11 @@
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
       <c r="G18" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
@@ -2286,11 +2286,11 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2303,13 +2303,13 @@
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
       <c r="G20" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>39</v>
@@ -2322,16 +2322,16 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -2339,11 +2339,11 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="54">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
@@ -2351,16 +2351,16 @@
         <v>62</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.5">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
@@ -2375,28 +2375,28 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="31"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
       <c r="G25" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
@@ -2404,147 +2404,147 @@
         <v>36</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>77</v>
+      <c r="A27" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>159</v>
+        <v>120</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
       <c r="G28" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="27"/>
+        <v>121</v>
+      </c>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
       <c r="G30" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="27"/>
+        <v>122</v>
+      </c>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="29"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A33" s="30"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="9"/>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2628,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2636,128 +2636,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>138</v>
-      </c>
       <c r="C2" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="114">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="25" customFormat="1" ht="57">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="85.5">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
